--- a/data/getdatafile.xlsx
+++ b/data/getdatafile.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rajha\eclipse-workspace\Online_Banking_System\data\"/>
     </mc:Choice>
@@ -26,7 +26,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="73">
   <si>
     <t>hh</t>
   </si>
@@ -259,6 +259,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -597,7 +598,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="10.44140625" customWidth="1"/>
+    <col min="4" max="4" customWidth="true" width="10.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -693,8 +694,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.21875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -811,7 +812,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="14.77734375" customWidth="1"/>
+    <col min="1" max="2" customWidth="true" width="14.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -853,8 +854,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="20" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.77734375" collapsed="true"/>
+    <col min="2" max="4" customWidth="true" width="20.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -905,8 +906,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5546875" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.5546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -996,8 +997,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="13.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="16.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -1048,8 +1049,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" customWidth="1"/>
-    <col min="2" max="2" width="12.21875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.21875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -1083,7 +1084,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -1117,8 +1118,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
